--- a/Probar formulas.xlsx
+++ b/Probar formulas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\Programación de aplicación para analisis de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C4483-FB31-4694-AA56-2CD259476EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1037B4CE-3691-4E2B-B12E-BE9FE24C5A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{FE57B20A-89D4-4CE2-AA74-4312A578370C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FE57B20A-89D4-4CE2-AA74-4312A578370C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="175" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,21 +196,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,14 +550,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>45.86</v>
       </c>
@@ -575,7 +574,7 @@
         <v>0.80040799496459947</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>2</v>
       </c>
@@ -595,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D4" s="1">
         <f>(0.5528+0.8785*D2-0.01322*(D2^2)+0.0003434*(D2^3))*(6.9731+0.042496*D2-(8.5275*(10^-4)*(D2^2))-(8.6088*(10^-5)*(D2^3))+(1.984*(10^-6)*(D2^4))-(1.6222*(10^-8)*(D2^5))+(4.7823*(10^-11)*(D2^6)))</f>
         <v>8.7417959429553438</v>
@@ -616,15 +615,15 @@
         <v>45200.486111111109</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N5" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -636,19 +635,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6937BB4E-CE36-46E7-8B26-4F47E7278D73}">
-  <dimension ref="B3:I7"/>
+  <dimension ref="B3:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -671,7 +670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>10450.93</v>
       </c>
@@ -693,8 +692,12 @@
       <c r="I4" s="8">
         <v>1.6188018001994999</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>I4*1.1</f>
+        <v>1.78068198021945</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>17</v>
       </c>
@@ -702,14 +705,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E7">
         <f>H4*1.5*((COS(F4))^1.2)+40</f>
         <v>434.37348128739711</v>
       </c>
       <c r="H7">
-        <f>(-0.489631*I4^2+17.4211*I4+51.858)/(0.0575636*I4^2+0.671139*I4+1)</f>
-        <v>35.21059274250625</v>
+        <f>(-0.489631*J4^2+17.4211*J4+51.858)/(0.0575636*J4^2+0.671139*J4+1)</f>
+        <v>34.205325083927512</v>
       </c>
     </row>
   </sheetData>
@@ -722,21 +725,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C6221B-42DA-4F0F-9A9A-4A4A7F714A9F}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -753,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>45202.40625</v>
       </c>
@@ -770,21 +773,21 @@
         <v>0.97615268443067904</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7">
         <f>D3/(E3+F3*COS(G3))</f>
         <v>1.0700930009808847</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -801,7 +804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>45203.40625</v>
       </c>
@@ -818,12 +821,12 @@
         <v>0.98126899223270903</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12">
         <f>D9/(E9+F9*COS(G9))</f>
         <v>1.0961741928855171</v>
